--- a/FME_files/LOOKUP_TABLES/SpatialReferenceMapper.xlsx
+++ b/FME_files/LOOKUP_TABLES/SpatialReferenceMapper.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>original_value</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>EPSG:3400</t>
+  </si>
+  <si>
+    <t>3400</t>
+  </si>
+  <si>
+    <t>3401</t>
+  </si>
+  <si>
+    <t>4326</t>
   </si>
 </sst>
 </file>
@@ -113,8 +122,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +407,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,26 +506,26 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>3400</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>3401</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>4326</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FME_files/LOOKUP_TABLES/SpatialReferenceMapper.xlsx
+++ b/FME_files/LOOKUP_TABLES/SpatialReferenceMapper.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>original_value</t>
   </si>
@@ -69,15 +69,6 @@
   </si>
   <si>
     <t>EPSG:3400</t>
-  </si>
-  <si>
-    <t>3400</t>
-  </si>
-  <si>
-    <t>3401</t>
-  </si>
-  <si>
-    <t>4326</t>
   </si>
 </sst>
 </file>
@@ -122,8 +113,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +398,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,26 +497,26 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="2">
+        <v>3400</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="2">
+        <v>3401</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="2">
+        <v>4326</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
